--- a/documents/p2p数据库 (2).xlsx
+++ b/documents/p2p数据库 (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NwtDownload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Intellij_IDEA\MyProject\Project\p2p_2_2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="352">
   <si>
     <r>
       <rPr>
@@ -504,9 +504,6 @@
   </si>
   <si>
     <t>addr</t>
-  </si>
-  <si>
-    <t>审核时间</t>
   </si>
   <si>
     <t>Date</t>
@@ -1206,35 +1203,6 @@
     <t>类型</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>权限(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>jur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>角色id</t>
   </si>
   <si>
@@ -2300,6 +2268,44 @@
         <charset val="134"/>
       </rPr>
       <t>reward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>权限(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jur</t>
     </r>
     <r>
       <rPr>
@@ -2317,7 +2323,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2391,6 +2397,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2432,7 +2453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2454,16 +2475,40 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2472,29 +2517,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2841,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2859,31 +2886,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="Q1" s="8" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="Q1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3110,11 +3137,11 @@
       <c r="O6" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3136,50 +3163,50 @@
         <v>54</v>
       </c>
       <c r="I7" t="s">
+        <v>349</v>
+      </c>
+      <c r="J7" t="s">
         <v>55</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>56</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>57</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" t="s">
         <v>58</v>
       </c>
-      <c r="N7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="Q7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>64</v>
-      </c>
-      <c r="I8" t="s">
-        <v>65</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
@@ -3188,13 +3215,13 @@
         <v>41</v>
       </c>
       <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" t="s">
         <v>66</v>
-      </c>
-      <c r="N8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" t="s">
-        <v>67</v>
       </c>
       <c r="Q8" t="s">
         <v>5</v>
@@ -3203,101 +3230,101 @@
         <v>8</v>
       </c>
       <c r="S8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
         <v>71</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="I9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="M9" t="s">
         <v>74</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" t="s">
         <v>75</v>
       </c>
-      <c r="N9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" t="s">
         <v>77</v>
-      </c>
-      <c r="R9" t="s">
-        <v>8</v>
-      </c>
-      <c r="S9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>79</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
       <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" t="s">
         <v>82</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s">
         <v>83</v>
       </c>
-      <c r="J10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>84</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" t="s">
         <v>85</v>
       </c>
-      <c r="N10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>86</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="R10" t="s">
-        <v>8</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -3311,72 +3338,72 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
       <c r="G11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" t="s">
         <v>93</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>95</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" t="s">
         <v>96</v>
-      </c>
-      <c r="R11" t="s">
-        <v>14</v>
-      </c>
-      <c r="S11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
         <v>99</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
         <v>100</v>
       </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>101</v>
-      </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N12" t="s">
         <v>8</v>
@@ -3384,55 +3411,55 @@
       <c r="O12" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="R12" t="s">
         <v>103</v>
       </c>
-      <c r="R12" t="s">
-        <v>104</v>
-      </c>
       <c r="S12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>105</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>106</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
         <v>107</v>
       </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>108</v>
-      </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M13" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" t="s">
         <v>109</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>110</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>111</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>112</v>
       </c>
       <c r="R13" t="s">
         <v>8</v>
@@ -3443,30 +3470,30 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>113</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="I14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
         <v>115</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="I14" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" t="s">
-        <v>116</v>
       </c>
       <c r="N14" t="s">
         <v>14</v>
@@ -3474,60 +3501,60 @@
       <c r="O14" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="Q14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="I15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
         <v>107</v>
       </c>
-      <c r="J15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" t="s">
-        <v>108</v>
-      </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N15" t="s">
         <v>6</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -3536,21 +3563,21 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
       <c r="M16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N16" t="s">
         <v>6</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q16" t="s">
         <v>5</v>
@@ -3564,13 +3591,13 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -3581,39 +3608,39 @@
       <c r="G17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="M17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="M17" t="s">
-        <v>100</v>
-      </c>
-      <c r="N17" t="s">
-        <v>14</v>
-      </c>
-      <c r="O17" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S17" t="s">
         <v>126</v>
-      </c>
-      <c r="R17" t="s">
-        <v>14</v>
-      </c>
-      <c r="S17" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
         <v>100</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
@@ -3622,7 +3649,7 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -3631,16 +3658,16 @@
         <v>8</v>
       </c>
       <c r="K18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M18" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" t="s">
         <v>107</v>
-      </c>
-      <c r="N18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" t="s">
-        <v>108</v>
       </c>
       <c r="Q18" t="s">
         <v>40</v>
@@ -3654,22 +3681,22 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
       <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
         <v>130</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>131</v>
-      </c>
-      <c r="G19" t="s">
-        <v>132</v>
       </c>
       <c r="I19" t="s">
         <v>37</v>
@@ -3681,34 +3708,34 @@
         <v>7</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O19" s="2" t="s">
+      <c r="Q19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="1:19" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="E20" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" t="s">
         <v>136</v>
-      </c>
-      <c r="F20" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" t="s">
-        <v>137</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
@@ -3720,7 +3747,7 @@
         <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N20" t="s">
         <v>8</v>
@@ -3728,41 +3755,41 @@
       <c r="O20" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="Q20" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="E21" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" t="s">
         <v>140</v>
       </c>
-      <c r="F21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>141</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" t="s">
-        <v>134</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
       <c r="Q21" s="5" t="s">
         <v>5</v>
       </c>
@@ -3770,7 +3797,7 @@
         <v>8</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -3781,39 +3808,39 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
         <v>145</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" t="s">
         <v>146</v>
       </c>
-      <c r="F22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>147</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" t="s">
         <v>148</v>
       </c>
-      <c r="J22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="M22" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="Q22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S22" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="Q22" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -3827,22 +3854,22 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" t="s">
         <v>152</v>
       </c>
-      <c r="F23" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>153</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" t="s">
         <v>154</v>
-      </c>
-      <c r="J23" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" t="s">
-        <v>155</v>
       </c>
       <c r="M23" t="s">
         <v>5</v>
@@ -3851,7 +3878,7 @@
         <v>8</v>
       </c>
       <c r="O23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>40</v>
@@ -3871,28 +3898,28 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" t="s">
         <v>156</v>
       </c>
-      <c r="F24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>157</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" t="s">
         <v>158</v>
       </c>
-      <c r="J24" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
         <v>159</v>
-      </c>
-      <c r="M24" t="s">
-        <v>160</v>
       </c>
       <c r="N24" t="s">
         <v>14</v>
@@ -3900,73 +3927,73 @@
       <c r="O24" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="Q24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" t="s">
         <v>161</v>
-      </c>
-      <c r="B25" t="s">
-        <v>162</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
       </c>
       <c r="E25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
         <v>148</v>
       </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" t="s">
-        <v>149</v>
-      </c>
       <c r="I25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" t="s">
         <v>163</v>
       </c>
-      <c r="J25" t="s">
-        <v>104</v>
-      </c>
-      <c r="K25" t="s">
-        <v>164</v>
-      </c>
       <c r="M25" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" t="s">
         <v>113</v>
       </c>
-      <c r="N25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O25" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
+      <c r="Q25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
         <v>154</v>
-      </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" t="s">
-        <v>155</v>
       </c>
       <c r="I26" t="s">
         <v>46</v>
@@ -3975,7 +4002,7 @@
         <v>14</v>
       </c>
       <c r="K26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M26" t="s">
         <v>33</v>
@@ -3993,36 +4020,36 @@
         <v>8</v>
       </c>
       <c r="S26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
         <v>167</v>
       </c>
-      <c r="B27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" t="s">
         <v>168</v>
       </c>
-      <c r="F27" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" t="s">
-        <v>169</v>
-      </c>
       <c r="J27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" t="s">
         <v>131</v>
-      </c>
-      <c r="K27" t="s">
-        <v>132</v>
       </c>
       <c r="M27" t="s">
         <v>13</v>
@@ -4031,10 +4058,10 @@
         <v>14</v>
       </c>
       <c r="O27" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q27" t="s">
         <v>170</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>171</v>
       </c>
       <c r="R27" t="s">
         <v>8</v>
@@ -4045,16 +4072,16 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>8</v>
@@ -4063,75 +4090,75 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" t="s">
+        <v>136</v>
+      </c>
+      <c r="M28" t="s">
         <v>172</v>
       </c>
-      <c r="J28" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" t="s">
-        <v>137</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
+        <v>8</v>
+      </c>
+      <c r="O28" t="s">
         <v>173</v>
       </c>
-      <c r="N28" t="s">
-        <v>8</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="Q28" t="s">
         <v>174</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
+        <v>130</v>
+      </c>
+      <c r="S28" t="s">
         <v>175</v>
-      </c>
-      <c r="R28" t="s">
-        <v>131</v>
-      </c>
-      <c r="S28" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29" t="s">
         <v>177</v>
       </c>
-      <c r="J29" t="s">
-        <v>131</v>
-      </c>
-      <c r="K29" t="s">
-        <v>141</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" t="s">
         <v>178</v>
       </c>
-      <c r="N29" t="s">
-        <v>14</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="Q29" t="s">
         <v>179</v>
       </c>
-      <c r="Q29" t="s">
-        <v>180</v>
-      </c>
       <c r="R29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S29" t="s">
         <v>28</v>
@@ -4139,43 +4166,43 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" t="s">
+        <v>146</v>
+      </c>
+      <c r="M30" t="s">
         <v>181</v>
       </c>
-      <c r="J30" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30" t="s">
-        <v>147</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" t="s">
         <v>182</v>
       </c>
-      <c r="N30" t="s">
-        <v>14</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="Q30" t="s">
         <v>183</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>184</v>
       </c>
       <c r="R30" t="s">
         <v>14</v>
@@ -4186,97 +4213,97 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
-        <v>101</v>
-      </c>
       <c r="E31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
         <v>100</v>
       </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>101</v>
-      </c>
       <c r="I31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N31" t="s">
         <v>6</v>
       </c>
       <c r="O31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
         <v>107</v>
       </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
-        <v>108</v>
-      </c>
       <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
         <v>107</v>
       </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>108</v>
-      </c>
       <c r="I32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N32" t="s">
         <v>6</v>
       </c>
       <c r="O32" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q32" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -4284,63 +4311,63 @@
       <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="E33" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
       <c r="I33" t="s">
+        <v>188</v>
+      </c>
+      <c r="J33" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" t="s">
         <v>189</v>
       </c>
-      <c r="J33" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="M33" t="s">
+        <v>99</v>
+      </c>
+      <c r="N33" t="s">
+        <v>14</v>
+      </c>
+      <c r="O33" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M33" t="s">
-        <v>100</v>
-      </c>
-      <c r="N33" t="s">
-        <v>14</v>
-      </c>
-      <c r="O33" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q33" s="14" t="s">
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="E34" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="I34" t="s">
         <v>193</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" t="s">
         <v>194</v>
       </c>
-      <c r="J34" t="s">
-        <v>131</v>
-      </c>
-      <c r="K34" t="s">
-        <v>195</v>
-      </c>
       <c r="M34" t="s">
+        <v>106</v>
+      </c>
+      <c r="N34" t="s">
+        <v>14</v>
+      </c>
+      <c r="O34" t="s">
         <v>107</v>
-      </c>
-      <c r="N34" t="s">
-        <v>14</v>
-      </c>
-      <c r="O34" t="s">
-        <v>108</v>
       </c>
       <c r="Q34" t="s">
         <v>5</v>
@@ -4349,7 +4376,7 @@
         <v>8</v>
       </c>
       <c r="S34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -4360,40 +4387,40 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35" t="s">
         <v>197</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" t="s">
         <v>198</v>
       </c>
-      <c r="J35" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="M35" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="Q35" t="s">
         <v>200</v>
       </c>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="E36" t="s">
         <v>201</v>
-      </c>
-      <c r="R35" t="s">
-        <v>8</v>
-      </c>
-      <c r="S35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="E36" t="s">
-        <v>203</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -4402,7 +4429,7 @@
         <v>9</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>8</v>
@@ -4410,19 +4437,19 @@
       <c r="K36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M36" s="15" t="s">
+      <c r="M36" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="Q36" t="s">
+        <v>204</v>
+      </c>
+      <c r="R36" t="s">
+        <v>8</v>
+      </c>
+      <c r="S36" t="s">
         <v>205</v>
-      </c>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="Q36" t="s">
-        <v>206</v>
-      </c>
-      <c r="R36" t="s">
-        <v>8</v>
-      </c>
-      <c r="S36" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -4433,19 +4460,19 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>8</v>
@@ -4460,41 +4487,41 @@
         <v>8</v>
       </c>
       <c r="O37" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="I38" t="s">
         <v>214</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="J38" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" t="s">
         <v>215</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="I38" t="s">
-        <v>216</v>
-      </c>
-      <c r="J38" t="s">
-        <v>104</v>
-      </c>
-      <c r="K38" t="s">
-        <v>217</v>
       </c>
       <c r="M38" t="s">
         <v>16</v>
@@ -4508,49 +4535,49 @@
     </row>
     <row r="39" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="I39" t="s">
         <v>219</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="J39" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M39" t="s">
         <v>220</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="I39" t="s">
+      <c r="N39" t="s">
+        <v>130</v>
+      </c>
+      <c r="O39" t="s">
         <v>221</v>
       </c>
-      <c r="J39" t="s">
-        <v>8</v>
-      </c>
-      <c r="K39" t="s">
-        <v>78</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="Q39" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="N39" t="s">
-        <v>131</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+    </row>
+    <row r="40" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="Q39" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-    </row>
-    <row r="40" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="E40" t="s">
         <v>5</v>
       </c>
@@ -4558,25 +4585,25 @@
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s">
         <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q40" t="s">
         <v>5</v>
@@ -4585,17 +4612,17 @@
         <v>8</v>
       </c>
       <c r="S40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="A41" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
       <c r="E41" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -4604,22 +4631,22 @@
         <v>9</v>
       </c>
       <c r="I41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s">
         <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q41" t="s">
         <v>16</v>
@@ -4628,7 +4655,7 @@
         <v>8</v>
       </c>
       <c r="S41" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -4642,45 +4669,45 @@
         <v>9</v>
       </c>
       <c r="E42" t="s">
+        <v>232</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M42" t="s">
+        <v>174</v>
+      </c>
+      <c r="N42" t="s">
+        <v>130</v>
+      </c>
+      <c r="O42" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q42" t="s">
         <v>234</v>
       </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" t="s">
-        <v>78</v>
-      </c>
-      <c r="I42" t="s">
-        <v>100</v>
-      </c>
-      <c r="J42" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" t="s">
-        <v>101</v>
-      </c>
-      <c r="M42" t="s">
-        <v>175</v>
-      </c>
-      <c r="N42" t="s">
-        <v>131</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="R42" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" t="s">
         <v>235</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>236</v>
-      </c>
-      <c r="R42" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -4688,31 +4715,31 @@
       <c r="C43" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="I43" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s">
+        <v>107</v>
+      </c>
+      <c r="M43" t="s">
+        <v>238</v>
+      </c>
+      <c r="N43" t="s">
+        <v>130</v>
+      </c>
+      <c r="O43" t="s">
         <v>239</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="I43" t="s">
-        <v>107</v>
-      </c>
-      <c r="J43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" t="s">
-        <v>108</v>
-      </c>
-      <c r="M43" t="s">
-        <v>240</v>
-      </c>
-      <c r="N43" t="s">
-        <v>131</v>
-      </c>
-      <c r="O43" t="s">
-        <v>241</v>
-      </c>
       <c r="Q43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R43" t="s">
         <v>14</v>
@@ -4723,49 +4750,49 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="I44" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="M44" t="s">
         <v>242</v>
       </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="s">
-        <v>219</v>
-      </c>
-      <c r="E44" s="8" t="s">
+      <c r="N44" t="s">
+        <v>130</v>
+      </c>
+      <c r="O44" t="s">
         <v>243</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="I44" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="M44" t="s">
+      <c r="Q44" t="s">
         <v>244</v>
       </c>
-      <c r="N44" t="s">
-        <v>131</v>
-      </c>
-      <c r="O44" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>246</v>
-      </c>
       <c r="R44" t="s">
         <v>8</v>
       </c>
       <c r="S44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="A45" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
@@ -4773,46 +4800,46 @@
         <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="M45" t="s">
+        <v>179</v>
+      </c>
+      <c r="N45" t="s">
+        <v>130</v>
+      </c>
+      <c r="O45" t="s">
         <v>247</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="Q45" t="s">
         <v>248</v>
       </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="M45" t="s">
-        <v>180</v>
-      </c>
-      <c r="N45" t="s">
-        <v>131</v>
-      </c>
-      <c r="O45" t="s">
+      <c r="R45" t="s">
+        <v>14</v>
+      </c>
+      <c r="S45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="E46" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="R45" t="s">
-        <v>14</v>
-      </c>
-      <c r="S45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="F46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="E46" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -4821,13 +4848,13 @@
         <v>8</v>
       </c>
       <c r="K46" t="s">
-        <v>254</v>
-      </c>
-      <c r="M46" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
+        <v>252</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
       <c r="Q46" t="s">
         <v>40</v>
       </c>
@@ -4846,10 +4873,10 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>14</v>
@@ -4858,52 +4885,52 @@
         <v>20</v>
       </c>
       <c r="I47" t="s">
+        <v>256</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s">
+        <v>257</v>
+      </c>
+      <c r="M47" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="J47" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="Q47" t="s">
         <v>259</v>
       </c>
-      <c r="M47" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="Q47" t="s">
-        <v>261</v>
-      </c>
       <c r="R47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>263</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
+        <v>261</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
       <c r="I48" t="s">
+        <v>102</v>
+      </c>
+      <c r="J48" t="s">
         <v>103</v>
       </c>
-      <c r="J48" t="s">
-        <v>104</v>
-      </c>
       <c r="K48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M48" t="s">
         <v>5</v>
@@ -4912,57 +4939,57 @@
         <v>8</v>
       </c>
       <c r="O48" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>263</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>264</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="I49" t="s">
+        <v>216</v>
+      </c>
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s">
+        <v>217</v>
+      </c>
+      <c r="M49" t="s">
+        <v>256</v>
+      </c>
+      <c r="N49" t="s">
+        <v>14</v>
+      </c>
+      <c r="O49" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q49" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="I49" t="s">
-        <v>218</v>
-      </c>
-      <c r="J49" t="s">
-        <v>14</v>
-      </c>
-      <c r="K49" t="s">
-        <v>219</v>
-      </c>
-      <c r="M49" t="s">
-        <v>258</v>
-      </c>
-      <c r="N49" t="s">
-        <v>14</v>
-      </c>
-      <c r="O49" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q49" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>5</v>
@@ -4971,25 +4998,25 @@
         <v>8</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I50" t="s">
+        <v>270</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s">
         <v>271</v>
       </c>
-      <c r="I50" t="s">
-        <v>272</v>
-      </c>
-      <c r="J50" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" t="s">
-        <v>273</v>
-      </c>
       <c r="M50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N50" t="s">
         <v>14</v>
       </c>
       <c r="O50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q50" t="s">
         <v>5</v>
@@ -4998,44 +5025,44 @@
         <v>8</v>
       </c>
       <c r="S50" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>274</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="M51" t="s">
+        <v>270</v>
+      </c>
+      <c r="N51" t="s">
+        <v>14</v>
+      </c>
+      <c r="O51" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q51" t="s">
         <v>275</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="s">
-        <v>276</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="M51" t="s">
-        <v>272</v>
-      </c>
-      <c r="N51" t="s">
-        <v>14</v>
-      </c>
-      <c r="O51" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>277</v>
       </c>
       <c r="R51" t="s">
         <v>8</v>
@@ -5046,7 +5073,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -5055,56 +5082,56 @@
         <v>34</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+        <v>257</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
       <c r="M52" t="s">
+        <v>102</v>
+      </c>
+      <c r="N52" t="s">
         <v>103</v>
       </c>
-      <c r="N52" t="s">
-        <v>104</v>
-      </c>
       <c r="O52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q52" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R52" t="s">
         <v>14</v>
       </c>
       <c r="S52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="G53" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
@@ -5113,106 +5140,106 @@
         <v>8</v>
       </c>
       <c r="K53" t="s">
+        <v>279</v>
+      </c>
+      <c r="M53" t="s">
+        <v>280</v>
+      </c>
+      <c r="N53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O53" t="s">
         <v>281</v>
       </c>
-      <c r="M53" t="s">
-        <v>282</v>
-      </c>
-      <c r="N53" t="s">
-        <v>14</v>
-      </c>
-      <c r="O53" t="s">
-        <v>283</v>
-      </c>
       <c r="Q53" t="s">
+        <v>102</v>
+      </c>
+      <c r="R53" t="s">
         <v>103</v>
       </c>
-      <c r="R53" t="s">
-        <v>104</v>
-      </c>
       <c r="S53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>282</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>283</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="I54" t="s">
         <v>284</v>
       </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" t="s">
-        <v>285</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="I54" t="s">
-        <v>286</v>
-      </c>
       <c r="J54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s">
-        <v>104</v>
-      </c>
-      <c r="M54" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="Q54" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="Q54" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>285</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>286</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="I55" t="s">
         <v>288</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="J55" t="s">
         <v>289</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
+        <v>175</v>
+      </c>
+      <c r="M55" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="J55" t="s">
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="Q55" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="K55" t="s">
-        <v>176</v>
-      </c>
-      <c r="M55" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="Q55" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
@@ -5221,16 +5248,16 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
+        <v>294</v>
+      </c>
+      <c r="I56" t="s">
+        <v>295</v>
+      </c>
+      <c r="J56" t="s">
+        <v>289</v>
+      </c>
+      <c r="K56" t="s">
         <v>296</v>
-      </c>
-      <c r="I56" t="s">
-        <v>297</v>
-      </c>
-      <c r="J56" t="s">
-        <v>291</v>
-      </c>
-      <c r="K56" t="s">
-        <v>298</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>5</v>
@@ -5239,7 +5266,7 @@
         <v>8</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q56" t="s">
         <v>5</v>
@@ -5248,41 +5275,41 @@
         <v>8</v>
       </c>
       <c r="S56" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="E57" t="s">
+        <v>216</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>217</v>
+      </c>
+      <c r="I57" t="s">
+        <v>298</v>
+      </c>
+      <c r="J57" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="E57" t="s">
-        <v>218</v>
-      </c>
-      <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>219</v>
-      </c>
-      <c r="I57" t="s">
-        <v>300</v>
-      </c>
-      <c r="J57" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" t="s">
-        <v>301</v>
-      </c>
       <c r="M57" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N57" s="6" t="s">
         <v>14</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q57" t="s">
         <v>16</v>
@@ -5295,28 +5322,28 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="I58" t="s">
+        <v>301</v>
+      </c>
+      <c r="J58" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" t="s">
         <v>302</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="I58" t="s">
+      <c r="Q58" t="s">
+        <v>234</v>
+      </c>
+      <c r="R58" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" t="s">
         <v>303</v>
-      </c>
-      <c r="J58" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>236</v>
-      </c>
-      <c r="R58" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
@@ -5327,46 +5354,46 @@
         <v>8</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="I59" t="s">
         <v>306</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="J59" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" t="s">
         <v>307</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="I59" t="s">
+      <c r="M59" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="J59" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="Q59" t="s">
+        <v>248</v>
+      </c>
+      <c r="R59" t="s">
+        <v>14</v>
+      </c>
+      <c r="S59" t="s">
         <v>309</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="Q59" t="s">
-        <v>250</v>
-      </c>
-      <c r="R59" t="s">
-        <v>14</v>
-      </c>
-      <c r="S59" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
@@ -5375,16 +5402,16 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I60" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J60" t="s">
         <v>8</v>
       </c>
       <c r="K60" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M60" t="s">
         <v>5</v>
@@ -5393,13 +5420,13 @@
         <v>8</v>
       </c>
       <c r="O60" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S60" t="s">
         <v>28</v>
@@ -5407,31 +5434,31 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E61" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
         <v>98</v>
       </c>
-      <c r="F61" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" t="s">
-        <v>99</v>
-      </c>
       <c r="I61" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J61" t="s">
         <v>8</v>
       </c>
       <c r="K61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M61" t="s">
         <v>16</v>
@@ -5443,51 +5470,51 @@
         <v>7</v>
       </c>
       <c r="Q61" t="s">
+        <v>102</v>
+      </c>
+      <c r="R61" t="s">
         <v>103</v>
       </c>
-      <c r="R61" t="s">
-        <v>104</v>
-      </c>
       <c r="S61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E62" t="s">
+        <v>314</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>315</v>
+      </c>
+      <c r="I62" t="s">
         <v>316</v>
       </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="J62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" t="s">
         <v>317</v>
       </c>
-      <c r="I62" t="s">
-        <v>318</v>
-      </c>
-      <c r="J62" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" t="s">
-        <v>319</v>
-      </c>
       <c r="M62" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N62" t="s">
         <v>8</v>
       </c>
       <c r="O62" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q62" t="s">
         <v>40</v>
@@ -5510,7 +5537,7 @@
         <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
@@ -5519,22 +5546,22 @@
         <v>7</v>
       </c>
       <c r="I63" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J63" t="s">
         <v>8</v>
       </c>
       <c r="K63" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M63" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N63" t="s">
         <v>14</v>
       </c>
       <c r="O63" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
@@ -5542,7 +5569,7 @@
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="E64" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -5551,47 +5578,47 @@
         <v>18</v>
       </c>
       <c r="I64" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J64" t="s">
         <v>8</v>
       </c>
       <c r="K64" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O64" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
+      <c r="A65" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
       <c r="E65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" t="s">
         <v>103</v>
       </c>
-      <c r="F65" t="s">
-        <v>104</v>
-      </c>
       <c r="G65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M65" t="s">
+        <v>102</v>
+      </c>
+      <c r="N65" t="s">
         <v>103</v>
       </c>
-      <c r="N65" t="s">
-        <v>104</v>
-      </c>
       <c r="O65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -5602,13 +5629,13 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>299</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
+        <v>297</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
       <c r="M66" t="s">
         <v>40</v>
       </c>
@@ -5629,11 +5656,11 @@
       <c r="C67" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
       <c r="I67" t="s">
         <v>5</v>
       </c>
@@ -5641,18 +5668,18 @@
         <v>8</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E68" t="s">
         <v>5</v>
@@ -5661,7 +5688,7 @@
         <v>8</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I68" t="s">
         <v>16</v>
@@ -5672,21 +5699,21 @@
       <c r="K68" t="s">
         <v>7</v>
       </c>
-      <c r="M68" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
+      <c r="M68" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>16</v>
@@ -5695,16 +5722,16 @@
         <v>8</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I69" t="s">
+        <v>76</v>
+      </c>
+      <c r="J69" t="s">
+        <v>8</v>
+      </c>
+      <c r="K69" t="s">
         <v>77</v>
-      </c>
-      <c r="J69" t="s">
-        <v>8</v>
-      </c>
-      <c r="K69" t="s">
-        <v>78</v>
       </c>
       <c r="M69" t="s">
         <v>5</v>
@@ -5713,119 +5740,119 @@
         <v>8</v>
       </c>
       <c r="O69" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>333</v>
+      </c>
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" t="s">
+        <v>334</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B70" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="I70" t="s">
+        <v>86</v>
+      </c>
+      <c r="J70" t="s">
+        <v>8</v>
+      </c>
+      <c r="K70" t="s">
+        <v>87</v>
+      </c>
+      <c r="M70" t="s">
         <v>337</v>
       </c>
-      <c r="F70" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="N70" t="s">
+        <v>8</v>
+      </c>
+      <c r="O70" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="I70" t="s">
-        <v>87</v>
-      </c>
-      <c r="J70" t="s">
-        <v>8</v>
-      </c>
-      <c r="K70" t="s">
-        <v>88</v>
-      </c>
-      <c r="M70" t="s">
-        <v>339</v>
-      </c>
-      <c r="N70" t="s">
-        <v>8</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" t="s">
         <v>103</v>
       </c>
-      <c r="B71" t="s">
-        <v>104</v>
-      </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I71" t="s">
+        <v>95</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s">
         <v>96</v>
       </c>
-      <c r="J71" t="s">
-        <v>14</v>
-      </c>
-      <c r="K71" t="s">
-        <v>97</v>
-      </c>
       <c r="M71" t="s">
+        <v>76</v>
+      </c>
+      <c r="N71" t="s">
+        <v>8</v>
+      </c>
+      <c r="O71" t="s">
         <v>77</v>
-      </c>
-      <c r="N71" t="s">
-        <v>8</v>
-      </c>
-      <c r="O71" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I72" t="s">
+        <v>102</v>
+      </c>
+      <c r="J72" t="s">
         <v>103</v>
       </c>
-      <c r="J72" t="s">
-        <v>104</v>
-      </c>
       <c r="K72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M72" t="s">
+        <v>86</v>
+      </c>
+      <c r="N72" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" t="s">
         <v>87</v>
       </c>
-      <c r="N72" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
+      <c r="A73" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
       <c r="M73" t="s">
+        <v>95</v>
+      </c>
+      <c r="N73" t="s">
+        <v>14</v>
+      </c>
+      <c r="O73" t="s">
         <v>96</v>
-      </c>
-      <c r="N73" t="s">
-        <v>14</v>
-      </c>
-      <c r="O73" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -5836,127 +5863,127 @@
         <v>8</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M74" t="s">
+        <v>102</v>
+      </c>
+      <c r="N74" t="s">
         <v>103</v>
       </c>
-      <c r="N74" t="s">
-        <v>104</v>
-      </c>
       <c r="O74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>349</v>
-      </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
+      <c r="A78" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
     <mergeCell ref="E54:G54"/>
     <mergeCell ref="M54:O54"/>
     <mergeCell ref="Q54:S54"/>
     <mergeCell ref="E55:G55"/>
     <mergeCell ref="M55:O55"/>
     <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A78:C78"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/documents/p2p数据库 (2).xlsx
+++ b/documents/p2p数据库 (2).xlsx
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="354">
   <si>
     <r>
       <rPr>
@@ -2172,26 +2172,6 @@
     <t>券id</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
-  </si>
-  <si>
     <t>提现id</t>
   </si>
   <si>
@@ -2316,6 +2296,35 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpname</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2453,7 +2462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2475,40 +2484,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2517,11 +2508,32 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2868,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2886,31 +2898,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="Q1" s="12" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="Q1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3137,11 +3149,11 @@
       <c r="O6" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3163,7 +3175,7 @@
         <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J7" t="s">
         <v>55</v>
@@ -3180,11 +3192,11 @@
       <c r="O7" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3411,8 +3423,8 @@
       <c r="O12" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" s="21" t="s">
-        <v>350</v>
+      <c r="Q12" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="R12" t="s">
         <v>103</v>
@@ -3478,11 +3490,11 @@
       <c r="C14" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="I14" t="s">
         <v>99</v>
       </c>
@@ -3501,11 +3513,11 @@
       <c r="O14" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -3517,11 +3529,11 @@
       <c r="C15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
       <c r="I15" t="s">
         <v>106</v>
       </c>
@@ -3540,11 +3552,11 @@
       <c r="O15" t="s">
         <v>81</v>
       </c>
-      <c r="Q15" s="14" t="s">
+      <c r="Q15" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3565,11 +3577,11 @@
       <c r="G16" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
       <c r="M16" t="s">
         <v>88</v>
       </c>
@@ -3608,11 +3620,11 @@
       <c r="G17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
       <c r="M17" t="s">
         <v>99</v>
       </c>
@@ -3716,18 +3728,18 @@
       <c r="O19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
     </row>
     <row r="20" spans="1:19" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="E20" t="s">
         <v>135</v>
       </c>
@@ -3755,18 +3767,18 @@
       <c r="O20" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="20" t="s">
+      <c r="Q20" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="E21" t="s">
         <v>139</v>
       </c>
@@ -3785,11 +3797,11 @@
       <c r="K21" t="s">
         <v>133</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
       <c r="Q21" s="5" t="s">
         <v>5</v>
       </c>
@@ -3828,11 +3840,11 @@
       <c r="K22" t="s">
         <v>148</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
       <c r="Q22" s="5" t="s">
         <v>125</v>
       </c>
@@ -3927,11 +3939,11 @@
       <c r="O24" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -3941,7 +3953,7 @@
         <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>353</v>
       </c>
       <c r="E25" t="s">
         <v>147</v>
@@ -3970,11 +3982,11 @@
       <c r="O25" t="s">
         <v>113</v>
       </c>
-      <c r="Q25" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
+      <c r="Q25" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -4078,7 +4090,7 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>111</v>
@@ -4298,8 +4310,8 @@
       <c r="Q32" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -4311,11 +4323,11 @@
       <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
       <c r="I33" t="s">
         <v>188</v>
       </c>
@@ -4334,23 +4346,23 @@
       <c r="O33" t="s">
         <v>100</v>
       </c>
-      <c r="Q33" s="7" t="s">
+      <c r="Q33" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="E34" s="8" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="E34" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
       <c r="I34" t="s">
         <v>193</v>
       </c>
@@ -4398,11 +4410,11 @@
       <c r="K35" t="s">
         <v>198</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
       <c r="Q35" t="s">
         <v>200</v>
       </c>
@@ -4414,11 +4426,11 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="A36" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="E36" t="s">
         <v>201</v>
       </c>
@@ -4437,11 +4449,11 @@
       <c r="K36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M36" s="17" t="s">
+      <c r="M36" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
       <c r="Q36" t="s">
         <v>204</v>
       </c>
@@ -4512,8 +4524,8 @@
       <c r="E38" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
       <c r="I38" t="s">
         <v>214</v>
       </c>
@@ -4543,11 +4555,11 @@
       <c r="C39" t="s">
         <v>217</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
       <c r="I39" t="s">
         <v>219</v>
       </c>
@@ -4566,18 +4578,18 @@
       <c r="O39" t="s">
         <v>221</v>
       </c>
-      <c r="Q39" s="8" t="s">
+      <c r="Q39" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
     </row>
     <row r="40" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
       <c r="E40" t="s">
         <v>5</v>
       </c>
@@ -4616,11 +4628,11 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
       <c r="E41" t="s">
         <v>201</v>
       </c>
@@ -4715,11 +4727,11 @@
       <c r="C43" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
       <c r="I43" t="s">
         <v>106</v>
       </c>
@@ -4758,16 +4770,16 @@
       <c r="C44" t="s">
         <v>217</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="I44" s="8" t="s">
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="I44" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
       <c r="M44" t="s">
         <v>242</v>
       </c>
@@ -4788,11 +4800,11 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
@@ -4802,11 +4814,11 @@
       <c r="G45" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
       <c r="M45" t="s">
         <v>179</v>
       </c>
@@ -4827,11 +4839,11 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
       <c r="E46" s="3" t="s">
         <v>250</v>
       </c>
@@ -4850,11 +4862,11 @@
       <c r="K46" t="s">
         <v>252</v>
       </c>
-      <c r="M46" s="15" t="s">
+      <c r="M46" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
       <c r="Q46" t="s">
         <v>40</v>
       </c>
@@ -4893,11 +4905,11 @@
       <c r="K47" t="s">
         <v>257</v>
       </c>
-      <c r="M47" s="12" t="s">
+      <c r="M47" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
       <c r="Q47" t="s">
         <v>259</v>
       </c>
@@ -4918,11 +4930,11 @@
       <c r="C48" t="s">
         <v>261</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
       <c r="I48" t="s">
         <v>102</v>
       </c>
@@ -4952,11 +4964,11 @@
       <c r="C49" t="s">
         <v>264</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
       <c r="I49" t="s">
         <v>216</v>
       </c>
@@ -4975,11 +4987,11 @@
       <c r="O49" t="s">
         <v>257</v>
       </c>
-      <c r="Q49" s="14" t="s">
+      <c r="Q49" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -5047,11 +5059,11 @@
       <c r="G51" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
       <c r="M51" t="s">
         <v>270</v>
       </c>
@@ -5090,11 +5102,11 @@
       <c r="G52" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
       <c r="M52" t="s">
         <v>102</v>
       </c>
@@ -5171,11 +5183,11 @@
       <c r="C54" t="s">
         <v>283</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
       <c r="I54" t="s">
         <v>284</v>
       </c>
@@ -5185,16 +5197,16 @@
       <c r="K54" t="s">
         <v>103</v>
       </c>
-      <c r="M54" s="8" t="s">
+      <c r="M54" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="Q54" s="8" t="s">
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="Q54" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -5206,11 +5218,11 @@
       <c r="C55" t="s">
         <v>286</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
       <c r="I55" t="s">
         <v>288</v>
       </c>
@@ -5220,16 +5232,16 @@
       <c r="K55" t="s">
         <v>175</v>
       </c>
-      <c r="M55" s="13" t="s">
+      <c r="M55" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="Q55" s="8" t="s">
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="Q55" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -5279,11 +5291,11 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
       <c r="E57" t="s">
         <v>216</v>
       </c>
@@ -5322,11 +5334,11 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
       <c r="I58" t="s">
         <v>301</v>
       </c>
@@ -5356,11 +5368,11 @@
       <c r="C59" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
       <c r="I59" t="s">
         <v>306</v>
       </c>
@@ -5370,11 +5382,11 @@
       <c r="K59" t="s">
         <v>307</v>
       </c>
-      <c r="M59" s="8" t="s">
+      <c r="M59" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
       <c r="Q59" t="s">
         <v>248</v>
       </c>
@@ -5597,11 +5609,11 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
       <c r="E65" s="1" t="s">
         <v>102</v>
       </c>
@@ -5631,11 +5643,11 @@
       <c r="C66" t="s">
         <v>297</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
       <c r="M66" t="s">
         <v>40</v>
       </c>
@@ -5656,11 +5668,11 @@
       <c r="C67" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
       <c r="I67" t="s">
         <v>5</v>
       </c>
@@ -5699,11 +5711,11 @@
       <c r="K68" t="s">
         <v>7</v>
       </c>
-      <c r="M68" s="7" t="s">
+      <c r="M68" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -5759,8 +5771,8 @@
       <c r="F70" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>336</v>
+      <c r="G70" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="I70" t="s">
         <v>86</v>
@@ -5772,13 +5784,13 @@
         <v>87</v>
       </c>
       <c r="M70" t="s">
+        <v>336</v>
+      </c>
+      <c r="N70" t="s">
+        <v>8</v>
+      </c>
+      <c r="O70" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="N70" t="s">
-        <v>8</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -5792,7 +5804,7 @@
         <v>103</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>91</v>
@@ -5840,11 +5852,11 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
+      <c r="A73" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
       <c r="M73" t="s">
         <v>95</v>
       </c>
@@ -5877,109 +5889,109 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>347</v>
-      </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="Q20:S20"/>
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="Q14:S14"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/p2p数据库 (2).xlsx
+++ b/documents/p2p数据库 (2).xlsx
@@ -1018,9 +1018,6 @@
     <t>rbj</t>
   </si>
   <si>
-    <t>应还时间</t>
-  </si>
-  <si>
     <t>ytime</t>
   </si>
   <si>
@@ -2325,6 +2322,10 @@
   </si>
   <si>
     <t>money</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>应还时间</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2490,25 +2491,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2520,20 +2527,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2880,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2898,31 +2899,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="Q1" s="10" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="Q1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3149,11 +3150,11 @@
       <c r="O6" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3175,7 +3176,7 @@
         <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J7" t="s">
         <v>55</v>
@@ -3192,11 +3193,11 @@
       <c r="O7" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3424,7 +3425,7 @@
         <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R12" t="s">
         <v>103</v>
@@ -3490,11 +3491,11 @@
       <c r="C14" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="I14" t="s">
         <v>99</v>
       </c>
@@ -3513,11 +3514,11 @@
       <c r="O14" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -3529,11 +3530,11 @@
       <c r="C15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
       <c r="I15" t="s">
         <v>106</v>
       </c>
@@ -3552,11 +3553,11 @@
       <c r="O15" t="s">
         <v>81</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3577,11 +3578,11 @@
       <c r="G16" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
       <c r="M16" t="s">
         <v>88</v>
       </c>
@@ -3620,11 +3621,11 @@
       <c r="G17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
       <c r="M17" t="s">
         <v>99</v>
       </c>
@@ -3728,18 +3729,18 @@
       <c r="O19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="E20" t="s">
         <v>135</v>
       </c>
@@ -3767,18 +3768,18 @@
       <c r="O20" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="14" t="s">
+      <c r="Q20" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="E21" t="s">
         <v>139</v>
       </c>
@@ -3797,11 +3798,11 @@
       <c r="K21" t="s">
         <v>133</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
       <c r="Q21" s="5" t="s">
         <v>5</v>
       </c>
@@ -3840,11 +3841,11 @@
       <c r="K22" t="s">
         <v>148</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="M22" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
       <c r="Q22" s="5" t="s">
         <v>125</v>
       </c>
@@ -3922,16 +3923,16 @@
         <v>156</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>353</v>
       </c>
       <c r="J24" t="s">
         <v>103</v>
       </c>
       <c r="K24" t="s">
+        <v>157</v>
+      </c>
+      <c r="M24" t="s">
         <v>158</v>
-      </c>
-      <c r="M24" t="s">
-        <v>159</v>
       </c>
       <c r="N24" t="s">
         <v>14</v>
@@ -3939,21 +3940,21 @@
       <c r="O24" t="s">
         <v>18</v>
       </c>
-      <c r="Q24" s="9" t="s">
+      <c r="Q24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
         <v>160</v>
       </c>
-      <c r="B25" t="s">
-        <v>161</v>
-      </c>
       <c r="C25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E25" t="s">
         <v>147</v>
@@ -3965,13 +3966,13 @@
         <v>148</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J25" t="s">
         <v>103</v>
       </c>
       <c r="K25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M25" t="s">
         <v>112</v>
@@ -3982,15 +3983,15 @@
       <c r="O25" t="s">
         <v>113</v>
       </c>
-      <c r="Q25" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
+      <c r="Q25" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
         <v>103</v>
@@ -4032,12 +4033,12 @@
         <v>8</v>
       </c>
       <c r="S26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
         <v>109</v>
@@ -4046,7 +4047,7 @@
         <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F27" t="s">
         <v>103</v>
@@ -4055,7 +4056,7 @@
         <v>103</v>
       </c>
       <c r="I27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J27" t="s">
         <v>130</v>
@@ -4070,10 +4071,10 @@
         <v>14</v>
       </c>
       <c r="O27" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q27" t="s">
         <v>169</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>170</v>
       </c>
       <c r="R27" t="s">
         <v>8</v>
@@ -4090,7 +4091,7 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>111</v>
@@ -4102,7 +4103,7 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J28" t="s">
         <v>130</v>
@@ -4111,22 +4112,22 @@
         <v>136</v>
       </c>
       <c r="M28" t="s">
+        <v>171</v>
+      </c>
+      <c r="N28" t="s">
+        <v>8</v>
+      </c>
+      <c r="O28" t="s">
         <v>172</v>
       </c>
-      <c r="N28" t="s">
-        <v>8</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="Q28" t="s">
         <v>173</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>174</v>
       </c>
       <c r="R28" t="s">
         <v>130</v>
       </c>
       <c r="S28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -4149,7 +4150,7 @@
         <v>81</v>
       </c>
       <c r="I29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J29" t="s">
         <v>130</v>
@@ -4158,16 +4159,16 @@
         <v>140</v>
       </c>
       <c r="M29" t="s">
+        <v>176</v>
+      </c>
+      <c r="N29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" t="s">
         <v>177</v>
       </c>
-      <c r="N29" t="s">
-        <v>14</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="Q29" t="s">
         <v>178</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>179</v>
       </c>
       <c r="R29" t="s">
         <v>130</v>
@@ -4196,7 +4197,7 @@
         <v>89</v>
       </c>
       <c r="I30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J30" t="s">
         <v>130</v>
@@ -4205,16 +4206,16 @@
         <v>146</v>
       </c>
       <c r="M30" t="s">
+        <v>180</v>
+      </c>
+      <c r="N30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" t="s">
         <v>181</v>
       </c>
-      <c r="N30" t="s">
-        <v>14</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="Q30" t="s">
         <v>182</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>183</v>
       </c>
       <c r="R30" t="s">
         <v>14</v>
@@ -4243,7 +4244,7 @@
         <v>100</v>
       </c>
       <c r="I31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J31" t="s">
         <v>130</v>
@@ -4261,7 +4262,7 @@
         <v>81</v>
       </c>
       <c r="Q31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R31" t="s">
         <v>103</v>
@@ -4290,7 +4291,7 @@
         <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J32" t="s">
         <v>130</v>
@@ -4307,11 +4308,11 @@
       <c r="O32" t="s">
         <v>89</v>
       </c>
-      <c r="Q32" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
+      <c r="Q32" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -4323,19 +4324,19 @@
       <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="I33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J33" t="s">
         <v>130</v>
       </c>
       <c r="K33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s">
         <v>99</v>
@@ -4346,31 +4347,31 @@
       <c r="O33" t="s">
         <v>100</v>
       </c>
-      <c r="Q33" s="15" t="s">
+      <c r="Q33" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="E34" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="E34" s="9" t="s">
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="I34" t="s">
         <v>192</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="I34" t="s">
-        <v>193</v>
       </c>
       <c r="J34" t="s">
         <v>130</v>
       </c>
       <c r="K34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M34" t="s">
         <v>106</v>
@@ -4388,7 +4389,7 @@
         <v>8</v>
       </c>
       <c r="S34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -4399,24 +4400,24 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
+        <v>195</v>
+      </c>
+      <c r="I35" t="s">
         <v>196</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" t="s">
         <v>197</v>
       </c>
-      <c r="J35" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="M35" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="Q35" t="s">
         <v>199</v>
-      </c>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="Q35" t="s">
-        <v>200</v>
       </c>
       <c r="R35" t="s">
         <v>8</v>
@@ -4426,13 +4427,13 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
       <c r="E36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -4441,7 +4442,7 @@
         <v>9</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>8</v>
@@ -4449,19 +4450,19 @@
       <c r="K36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M36" s="18" t="s">
+      <c r="M36" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="Q36" t="s">
         <v>203</v>
       </c>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
+        <v>8</v>
+      </c>
+      <c r="S36" t="s">
         <v>204</v>
-      </c>
-      <c r="R36" t="s">
-        <v>8</v>
-      </c>
-      <c r="S36" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -4472,16 +4473,16 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" t="s">
         <v>206</v>
       </c>
-      <c r="E37" t="s">
-        <v>207</v>
-      </c>
       <c r="F37" t="s">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>111</v>
@@ -4499,41 +4500,41 @@
         <v>8</v>
       </c>
       <c r="O37" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q37" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>91</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
         <v>211</v>
       </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="E38" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="I38" t="s">
         <v>213</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="I38" t="s">
-        <v>214</v>
       </c>
       <c r="J38" t="s">
         <v>103</v>
       </c>
       <c r="K38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M38" t="s">
         <v>16</v>
@@ -4547,21 +4548,21 @@
     </row>
     <row r="39" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
         <v>216</v>
       </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="E39" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="I39" t="s">
         <v>218</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="I39" t="s">
-        <v>219</v>
       </c>
       <c r="J39" t="s">
         <v>8</v>
@@ -4570,26 +4571,26 @@
         <v>77</v>
       </c>
       <c r="M39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N39" t="s">
         <v>130</v>
       </c>
       <c r="O39" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q39" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="Q39" s="9" t="s">
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+    </row>
+    <row r="40" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-    </row>
-    <row r="40" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
       <c r="E40" t="s">
         <v>5</v>
       </c>
@@ -4597,7 +4598,7 @@
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I40" t="s">
         <v>80</v>
@@ -4609,13 +4610,13 @@
         <v>81</v>
       </c>
       <c r="M40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N40" t="s">
         <v>130</v>
       </c>
       <c r="O40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q40" t="s">
         <v>5</v>
@@ -4624,17 +4625,17 @@
         <v>8</v>
       </c>
       <c r="S40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
       <c r="E41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -4652,13 +4653,13 @@
         <v>89</v>
       </c>
       <c r="M41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N41" t="s">
         <v>130</v>
       </c>
       <c r="O41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q41" t="s">
         <v>16</v>
@@ -4667,7 +4668,7 @@
         <v>8</v>
       </c>
       <c r="S41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -4681,7 +4682,7 @@
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -4699,27 +4700,27 @@
         <v>100</v>
       </c>
       <c r="M42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N42" t="s">
         <v>130</v>
       </c>
       <c r="O42" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q42" t="s">
         <v>233</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" t="s">
         <v>234</v>
-      </c>
-      <c r="R42" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -4727,11 +4728,11 @@
       <c r="C43" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="E43" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
       <c r="I43" t="s">
         <v>106</v>
       </c>
@@ -4742,16 +4743,16 @@
         <v>107</v>
       </c>
       <c r="M43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N43" t="s">
         <v>130</v>
       </c>
       <c r="O43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R43" t="s">
         <v>14</v>
@@ -4762,35 +4763,35 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="s">
-        <v>217</v>
-      </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="I44" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="M44" t="s">
         <v>241</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="I44" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="M44" t="s">
-        <v>242</v>
       </c>
       <c r="N44" t="s">
         <v>130</v>
       </c>
       <c r="O44" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q44" t="s">
         <v>243</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>244</v>
       </c>
       <c r="R44" t="s">
         <v>8</v>
@@ -4800,11 +4801,11 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="A45" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
@@ -4812,24 +4813,24 @@
         <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I45" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="I45" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
       <c r="M45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N45" t="s">
         <v>130</v>
       </c>
       <c r="O45" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q45" t="s">
         <v>247</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>248</v>
       </c>
       <c r="R45" t="s">
         <v>14</v>
@@ -4839,19 +4840,19 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="E46" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -4860,13 +4861,13 @@
         <v>8</v>
       </c>
       <c r="K46" t="s">
+        <v>251</v>
+      </c>
+      <c r="M46" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="M46" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
       <c r="Q46" t="s">
         <v>40</v>
       </c>
@@ -4885,10 +4886,10 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>14</v>
@@ -4897,21 +4898,21 @@
         <v>20</v>
       </c>
       <c r="I47" t="s">
+        <v>255</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s">
         <v>256</v>
       </c>
-      <c r="J47" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="M47" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="M47" s="10" t="s">
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="Q47" t="s">
         <v>258</v>
-      </c>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="Q47" t="s">
-        <v>259</v>
       </c>
       <c r="R47" t="s">
         <v>103</v>
@@ -4922,19 +4923,19 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
         <v>260</v>
       </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>261</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
+      <c r="E48" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
       <c r="I48" t="s">
         <v>102</v>
       </c>
@@ -4951,57 +4952,57 @@
         <v>8</v>
       </c>
       <c r="O48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
         <v>263</v>
       </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="E49" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="I49" t="s">
+        <v>215</v>
+      </c>
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s">
+        <v>216</v>
+      </c>
+      <c r="M49" t="s">
+        <v>255</v>
+      </c>
+      <c r="N49" t="s">
+        <v>14</v>
+      </c>
+      <c r="O49" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q49" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="I49" t="s">
-        <v>216</v>
-      </c>
-      <c r="J49" t="s">
-        <v>14</v>
-      </c>
-      <c r="K49" t="s">
-        <v>217</v>
-      </c>
-      <c r="M49" t="s">
-        <v>256</v>
-      </c>
-      <c r="N49" t="s">
-        <v>14</v>
-      </c>
-      <c r="O49" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q49" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>266</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
         <v>267</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>268</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>5</v>
@@ -5010,25 +5011,25 @@
         <v>8</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I50" t="s">
         <v>269</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s">
         <v>270</v>
       </c>
-      <c r="J50" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" t="s">
-        <v>271</v>
-      </c>
       <c r="M50" t="s">
+        <v>215</v>
+      </c>
+      <c r="N50" t="s">
+        <v>14</v>
+      </c>
+      <c r="O50" t="s">
         <v>216</v>
-      </c>
-      <c r="N50" t="s">
-        <v>14</v>
-      </c>
-      <c r="O50" t="s">
-        <v>217</v>
       </c>
       <c r="Q50" t="s">
         <v>5</v>
@@ -5037,44 +5038,44 @@
         <v>8</v>
       </c>
       <c r="S50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
         <v>273</v>
       </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="E51" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="M51" t="s">
+        <v>269</v>
+      </c>
+      <c r="N51" t="s">
+        <v>14</v>
+      </c>
+      <c r="O51" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q51" t="s">
         <v>274</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="M51" t="s">
-        <v>270</v>
-      </c>
-      <c r="N51" t="s">
-        <v>14</v>
-      </c>
-      <c r="O51" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>275</v>
       </c>
       <c r="R51" t="s">
         <v>8</v>
@@ -5085,7 +5086,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -5094,19 +5095,19 @@
         <v>34</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
+      <c r="I52" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
       <c r="M52" t="s">
         <v>102</v>
       </c>
@@ -5117,24 +5118,24 @@
         <v>103</v>
       </c>
       <c r="Q52" t="s">
+        <v>215</v>
+      </c>
+      <c r="R52" t="s">
+        <v>14</v>
+      </c>
+      <c r="S52" t="s">
         <v>216</v>
-      </c>
-      <c r="R52" t="s">
-        <v>14</v>
-      </c>
-      <c r="S52" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>276</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
         <v>277</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" t="s">
-        <v>278</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>102</v>
@@ -5152,16 +5153,16 @@
         <v>8</v>
       </c>
       <c r="K53" t="s">
+        <v>278</v>
+      </c>
+      <c r="M53" t="s">
         <v>279</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O53" t="s">
         <v>280</v>
-      </c>
-      <c r="N53" t="s">
-        <v>14</v>
-      </c>
-      <c r="O53" t="s">
-        <v>281</v>
       </c>
       <c r="Q53" t="s">
         <v>102</v>
@@ -5175,21 +5176,21 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>281</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
         <v>282</v>
       </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="E54" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="I54" t="s">
         <v>283</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="I54" t="s">
-        <v>284</v>
       </c>
       <c r="J54" t="s">
         <v>103</v>
@@ -5197,61 +5198,61 @@
       <c r="K54" t="s">
         <v>103</v>
       </c>
-      <c r="M54" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="Q54" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
+      <c r="M54" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="Q54" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>284</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
         <v>285</v>
       </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="E55" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="I55" t="s">
         <v>287</v>
       </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>288</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
+        <v>174</v>
+      </c>
+      <c r="M55" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="K55" t="s">
-        <v>175</v>
-      </c>
-      <c r="M55" s="21" t="s">
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="Q55" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="Q55" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
         <v>292</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" t="s">
-        <v>293</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
@@ -5260,16 +5261,16 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
+        <v>293</v>
+      </c>
+      <c r="I56" t="s">
         <v>294</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
+        <v>288</v>
+      </c>
+      <c r="K56" t="s">
         <v>295</v>
-      </c>
-      <c r="J56" t="s">
-        <v>289</v>
-      </c>
-      <c r="K56" t="s">
-        <v>296</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>5</v>
@@ -5278,7 +5279,7 @@
         <v>8</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q56" t="s">
         <v>5</v>
@@ -5287,32 +5288,32 @@
         <v>8</v>
       </c>
       <c r="S56" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="E57" t="s">
+        <v>215</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>216</v>
+      </c>
+      <c r="I57" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="E57" t="s">
-        <v>216</v>
-      </c>
-      <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>217</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" t="s">
         <v>298</v>
-      </c>
-      <c r="J57" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" t="s">
-        <v>299</v>
       </c>
       <c r="M57" s="6" t="s">
         <v>125</v>
@@ -5321,7 +5322,7 @@
         <v>14</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q57" t="s">
         <v>16</v>
@@ -5334,28 +5335,28 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="I58" t="s">
         <v>300</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" t="s">
         <v>301</v>
       </c>
-      <c r="J58" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="Q58" t="s">
+        <v>233</v>
+      </c>
+      <c r="R58" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" t="s">
         <v>302</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>234</v>
-      </c>
-      <c r="R58" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
@@ -5366,46 +5367,46 @@
         <v>8</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="I59" t="s">
         <v>305</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" t="s">
         <v>306</v>
       </c>
-      <c r="J59" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="M59" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="M59" s="9" t="s">
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="Q59" t="s">
+        <v>247</v>
+      </c>
+      <c r="R59" t="s">
+        <v>14</v>
+      </c>
+      <c r="S59" t="s">
         <v>308</v>
-      </c>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="Q59" t="s">
-        <v>248</v>
-      </c>
-      <c r="R59" t="s">
-        <v>14</v>
-      </c>
-      <c r="S59" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
@@ -5414,16 +5415,16 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I60" t="s">
+        <v>309</v>
+      </c>
+      <c r="J60" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" t="s">
         <v>310</v>
-      </c>
-      <c r="J60" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" t="s">
-        <v>311</v>
       </c>
       <c r="M60" t="s">
         <v>5</v>
@@ -5432,7 +5433,7 @@
         <v>8</v>
       </c>
       <c r="O60" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q60" t="s">
         <v>101</v>
@@ -5446,13 +5447,13 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="E61" t="s">
         <v>97</v>
@@ -5464,13 +5465,13 @@
         <v>98</v>
       </c>
       <c r="I61" t="s">
+        <v>311</v>
+      </c>
+      <c r="J61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" t="s">
         <v>312</v>
-      </c>
-      <c r="J61" t="s">
-        <v>8</v>
-      </c>
-      <c r="K61" t="s">
-        <v>313</v>
       </c>
       <c r="M61" t="s">
         <v>16</v>
@@ -5493,7 +5494,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>103</v>
@@ -5502,31 +5503,31 @@
         <v>103</v>
       </c>
       <c r="E62" t="s">
+        <v>313</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
         <v>314</v>
       </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="I62" t="s">
         <v>315</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" t="s">
         <v>316</v>
       </c>
-      <c r="J62" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" t="s">
-        <v>317</v>
-      </c>
       <c r="M62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N62" t="s">
         <v>8</v>
       </c>
       <c r="O62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q62" t="s">
         <v>40</v>
@@ -5549,7 +5550,7 @@
         <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
@@ -5558,22 +5559,22 @@
         <v>7</v>
       </c>
       <c r="I63" t="s">
+        <v>318</v>
+      </c>
+      <c r="J63" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" t="s">
         <v>319</v>
       </c>
-      <c r="J63" t="s">
-        <v>8</v>
-      </c>
-      <c r="K63" t="s">
-        <v>320</v>
-      </c>
       <c r="M63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N63" t="s">
         <v>14</v>
       </c>
       <c r="O63" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
@@ -5581,7 +5582,7 @@
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="E64" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -5590,13 +5591,13 @@
         <v>18</v>
       </c>
       <c r="I64" t="s">
+        <v>321</v>
+      </c>
+      <c r="J64" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" t="s">
         <v>322</v>
-      </c>
-      <c r="J64" t="s">
-        <v>8</v>
-      </c>
-      <c r="K64" t="s">
-        <v>323</v>
       </c>
       <c r="M64" t="s">
         <v>101</v>
@@ -5609,11 +5610,11 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
+      <c r="A65" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
       <c r="E65" s="1" t="s">
         <v>102</v>
       </c>
@@ -5641,13 +5642,13 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>297</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
+        <v>296</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
       <c r="M66" t="s">
         <v>40</v>
       </c>
@@ -5668,11 +5669,11 @@
       <c r="C67" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="E67" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
       <c r="I67" t="s">
         <v>5</v>
       </c>
@@ -5680,12 +5681,12 @@
         <v>8</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>8</v>
@@ -5700,7 +5701,7 @@
         <v>8</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I68" t="s">
         <v>16</v>
@@ -5711,21 +5712,21 @@
       <c r="K68" t="s">
         <v>7</v>
       </c>
-      <c r="M68" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
+      <c r="M68" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B69" t="s">
         <v>130</v>
       </c>
       <c r="C69" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>16</v>
@@ -5734,7 +5735,7 @@
         <v>8</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I69" t="s">
         <v>76</v>
@@ -5752,27 +5753,27 @@
         <v>8</v>
       </c>
       <c r="O69" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B70" t="s">
         <v>130</v>
       </c>
       <c r="C70" t="s">
+        <v>333</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="F70" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I70" t="s">
         <v>86</v>
@@ -5784,13 +5785,13 @@
         <v>87</v>
       </c>
       <c r="M70" t="s">
+        <v>335</v>
+      </c>
+      <c r="N70" t="s">
+        <v>8</v>
+      </c>
+      <c r="O70" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="N70" t="s">
-        <v>8</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -5804,13 +5805,13 @@
         <v>103</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I71" t="s">
         <v>95</v>
@@ -5852,11 +5853,11 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
       <c r="M73" t="s">
         <v>95</v>
       </c>
@@ -5875,7 +5876,7 @@
         <v>8</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M74" t="s">
         <v>102</v>
@@ -5889,109 +5890,109 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>346</v>
-      </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
+      <c r="A78" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
     <mergeCell ref="E54:G54"/>
     <mergeCell ref="M54:O54"/>
     <mergeCell ref="Q54:S54"/>
     <mergeCell ref="E55:G55"/>
     <mergeCell ref="M55:O55"/>
     <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A78:C78"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
